--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -20,13 +20,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t xml:space="preserve">Excel Column Title
 </t>
   </si>
   <si>
     <t xml:space="preserve">https://www.interviewbit.com/problems/excel-column-title/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power of 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.interviewbit.com/problems/power-of-2/</t>
   </si>
 </sst>
 </file>
@@ -41,6 +47,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -62,6 +69,7 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -136,17 +144,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.3622448979592"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.9642857142857"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.1377551020408"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.4336734693878"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -157,9 +165,18 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" display="https://www.interviewbit.com/problems/excel-column-title/"/>
+    <hyperlink ref="B2" r:id="rId2" display="https://www.interviewbit.com/problems/power-of-2/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">Excel Column Title
 </t>
@@ -33,6 +33,12 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.interviewbit.com/problems/power-of-2/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multiply 2 strings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.interviewbit.com/problems/multiply-strings/</t>
   </si>
 </sst>
 </file>
@@ -144,10 +150,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -173,10 +179,19 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" display="https://www.interviewbit.com/problems/excel-column-title/"/>
     <hyperlink ref="B2" r:id="rId2" display="https://www.interviewbit.com/problems/power-of-2/"/>
+    <hyperlink ref="B3" r:id="rId3" display="https://www.interviewbit.com/problems/multiply-strings/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
